--- a/Circuiti3/dati_rlc.xlsx
+++ b/Circuiti3/dati_rlc.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL\Stefano\Bicocca\secondo_anno\lab2\Laboratorio_2\Circuiti3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C9C297-092F-472C-B1A2-8F61B5BFB336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859EC79A-026A-4E5E-884B-45617F499CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,10 +49,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -360,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,22 +384,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -400,784 +408,522 @@
         <v>1000</v>
       </c>
       <c r="B2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+      <c r="D2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C2">
-        <v>8.9</v>
-      </c>
-      <c r="D2">
-        <v>2.4</v>
-      </c>
       <c r="E2">
-        <v>14</v>
+        <v>-88</v>
       </c>
       <c r="F2">
-        <v>-776</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C3">
-        <v>8.32</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
       <c r="E3">
-        <v>27</v>
+        <v>-86</v>
       </c>
       <c r="F3">
-        <v>-56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>7.52</v>
+        <v>1.2</v>
       </c>
       <c r="D4">
-        <v>5.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E4">
-        <v>36</v>
+        <v>-87</v>
       </c>
       <c r="F4">
-        <v>-50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6.72</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D5">
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>-80</v>
       </c>
       <c r="F5">
-        <v>-42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B6">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="D6">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>-74</v>
       </c>
       <c r="F6">
-        <v>-35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E7">
-        <v>55</v>
+        <v>-63</v>
       </c>
       <c r="F7">
-        <v>-33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>-44</v>
       </c>
       <c r="F8">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="C9">
-        <v>5.19</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D9">
-        <v>8.4</v>
+        <v>2.6</v>
       </c>
       <c r="E9">
-        <v>57</v>
+        <v>-13</v>
       </c>
       <c r="F9">
-        <v>-32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6200</v>
+        <v>7500</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="C10">
-        <v>5.09</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D10">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>-30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="C11">
-        <v>4.9000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="D11">
-        <v>8.4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>-29</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6600</v>
+        <v>9000</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C12">
-        <v>4.8600000000000003</v>
+        <v>7.6</v>
       </c>
       <c r="D12">
-        <v>8.4</v>
+        <v>6.1</v>
       </c>
       <c r="E12">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>-29</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6700</v>
+        <v>10000</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="C13">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="D13">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F13">
-        <v>-27</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>6800</v>
+        <v>11000</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14">
-        <v>4.76</v>
+        <v>5.2</v>
       </c>
       <c r="D14">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14">
-        <v>-27</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>6900</v>
+        <v>12000</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15">
-        <v>4.72</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D15">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F15">
-        <f>-+-26</f>
-        <v>26</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16">
-        <v>4.6500000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="D16">
-        <v>8.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F16">
-        <v>-25</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>7100</v>
+        <v>14000</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17">
-        <v>4.5999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="D17">
-        <v>8.81</v>
+        <v>9.4</v>
       </c>
       <c r="E17">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F17">
-        <v>-28</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7200</v>
+        <v>16000</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18">
-        <v>4.57</v>
+        <v>2.8</v>
       </c>
       <c r="D18">
-        <v>8.85</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E18">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F18">
-        <v>-27</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>7300</v>
+        <v>18000</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="C19">
-        <v>4.51</v>
+        <v>2.4</v>
       </c>
       <c r="D19">
-        <v>8.8699999999999992</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F19">
-        <v>-27</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>7400</v>
+        <v>22000</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>4.46</v>
+        <v>1.9</v>
       </c>
       <c r="D20">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="E20">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F20">
-        <v>-25</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>4.41</v>
+        <v>1.6</v>
       </c>
       <c r="D21">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="E21">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F21">
-        <v>-25</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>7600</v>
+        <v>30000</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22">
-        <v>4.3899999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="D22">
-        <v>8.9600000000000009</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>63.4</v>
+        <v>82</v>
       </c>
       <c r="F22">
-        <v>-24</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>7800</v>
+        <v>35000</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23">
-        <v>4.28</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D23">
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F23">
-        <v>-25</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>8000</v>
+        <v>45000</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="D24">
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F24">
-        <v>-24</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8500</v>
+        <v>70000</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="D25">
-        <v>8.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E25">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F25">
-        <v>-23</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9000</v>
+        <v>100000</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="C26">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="D26">
-        <v>9.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E26">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F26">
-        <v>-22</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>9500</v>
+        <v>150000</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>0.19</v>
       </c>
       <c r="D27">
-        <v>9.33</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E27">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F27">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>10000</v>
-      </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>3.5</v>
-      </c>
-      <c r="D28">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="E28">
-        <v>68</v>
-      </c>
-      <c r="F28">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>11000</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>3.34</v>
-      </c>
-      <c r="D29">
-        <v>9.24</v>
-      </c>
-      <c r="E29">
-        <v>70</v>
-      </c>
-      <c r="F29">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>12000</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E30">
-        <v>72</v>
-      </c>
-      <c r="F30">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>13000</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>2.8</v>
-      </c>
-      <c r="D31">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E31">
-        <v>73</v>
-      </c>
-      <c r="F31">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>15000</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>2.5</v>
-      </c>
-      <c r="D32">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E32">
-        <v>76</v>
-      </c>
-      <c r="F32">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>20000</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>1.8</v>
-      </c>
-      <c r="D33">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E33">
-        <v>79</v>
-      </c>
-      <c r="F33">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>25000</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>1.5</v>
-      </c>
-      <c r="D34">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E34">
-        <v>82</v>
-      </c>
-      <c r="F34">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>30000</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>1.3</v>
-      </c>
-      <c r="D35">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E35">
-        <v>82</v>
-      </c>
-      <c r="F35">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>40000</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>9.9</v>
-      </c>
-      <c r="E36">
-        <v>85</v>
-      </c>
-      <c r="F36">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>50000</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>0.8</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>85</v>
-      </c>
-      <c r="F37">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>75000</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>0.4</v>
-      </c>
-      <c r="D38">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E38">
-        <v>88</v>
-      </c>
-      <c r="F38">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>100000</v>
-      </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>0.3</v>
-      </c>
-      <c r="D39">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E39">
-        <v>90</v>
-      </c>
-      <c r="F39">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>150000</v>
-      </c>
-      <c r="B40">
-        <v>10</v>
-      </c>
-      <c r="C40">
-        <v>0.2</v>
-      </c>
-      <c r="D40">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="F40">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>